--- a/data/street_groups_working.xlsx
+++ b/data/street_groups_working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\seattle_streets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B3BD2-BD30-48C7-8B21-69017580CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED75D4-B859-402D-B2AD-CEC2F6E7037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1920,8 +1920,8 @@
   <dimension ref="A1:H1215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C454" sqref="C454:C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="0"/>
@@ -27149,48 +27149,911 @@
     </row>
   </sheetData>
   <mergeCells count="1001">
-    <mergeCell ref="C682:C686"/>
-    <mergeCell ref="C985:C986"/>
-    <mergeCell ref="B618:B621"/>
-    <mergeCell ref="B1109:B1110"/>
-    <mergeCell ref="A1116:A1117"/>
-    <mergeCell ref="B1116:B1117"/>
-    <mergeCell ref="C1116:C1117"/>
-    <mergeCell ref="B387:B395"/>
-    <mergeCell ref="B943:B944"/>
-    <mergeCell ref="A1018:A1019"/>
-    <mergeCell ref="A1186:A1187"/>
-    <mergeCell ref="A1049:A1051"/>
-    <mergeCell ref="B1199:B1200"/>
-    <mergeCell ref="A937:A938"/>
-    <mergeCell ref="C768:C771"/>
-    <mergeCell ref="B985:B986"/>
-    <mergeCell ref="A924:A925"/>
-    <mergeCell ref="A618:A621"/>
-    <mergeCell ref="C1124:C1125"/>
-    <mergeCell ref="C721:C724"/>
-    <mergeCell ref="C1076:C1077"/>
-    <mergeCell ref="C493:C495"/>
-    <mergeCell ref="B1032:B1033"/>
-    <mergeCell ref="C431:C433"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A225:A231"/>
-    <mergeCell ref="C246:C252"/>
-    <mergeCell ref="B305:B315"/>
-    <mergeCell ref="A702:A708"/>
-    <mergeCell ref="B1078:B1079"/>
-    <mergeCell ref="B508:B513"/>
-    <mergeCell ref="C434:C435"/>
-    <mergeCell ref="A740:A745"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="C786:C789"/>
-    <mergeCell ref="B1009:B1010"/>
-    <mergeCell ref="C456:C458"/>
-    <mergeCell ref="A682:A686"/>
-    <mergeCell ref="B1034:B1036"/>
-    <mergeCell ref="B334:B342"/>
-    <mergeCell ref="B772:B776"/>
-    <mergeCell ref="A643:A647"/>
+    <mergeCell ref="C1197:C1198"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="A851:A852"/>
+    <mergeCell ref="B1131:B1132"/>
+    <mergeCell ref="C851:C852"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="A1087:A1088"/>
+    <mergeCell ref="C845:C846"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="C1018:C1019"/>
+    <mergeCell ref="C772:C773"/>
+    <mergeCell ref="C1087:C1088"/>
+    <mergeCell ref="C505:C507"/>
+    <mergeCell ref="C1148:C1149"/>
+    <mergeCell ref="B263:B272"/>
+    <mergeCell ref="B900:B901"/>
+    <mergeCell ref="C639:C642"/>
+    <mergeCell ref="B1133:B1134"/>
+    <mergeCell ref="A709:A710"/>
+    <mergeCell ref="C709:C710"/>
+    <mergeCell ref="B835:B836"/>
+    <mergeCell ref="B842:B844"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="B1186:B1187"/>
+    <mergeCell ref="A751:A754"/>
+    <mergeCell ref="B790:B794"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A284:A294"/>
+    <mergeCell ref="A218:A224"/>
+    <mergeCell ref="B755:B757"/>
+    <mergeCell ref="B822:B823"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="A1180:A1181"/>
+    <mergeCell ref="B1180:B1181"/>
+    <mergeCell ref="C1180:C1181"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B845:B846"/>
+    <mergeCell ref="B502:B507"/>
+    <mergeCell ref="B629:B634"/>
+    <mergeCell ref="B1061:B1065"/>
+    <mergeCell ref="B932:B934"/>
+    <mergeCell ref="B996:B997"/>
+    <mergeCell ref="B795:B797"/>
+    <mergeCell ref="B569:B571"/>
+    <mergeCell ref="B909:B910"/>
+    <mergeCell ref="B870:B872"/>
+    <mergeCell ref="A295:A304"/>
+    <mergeCell ref="B1068:B1070"/>
+    <mergeCell ref="B1002:B1005"/>
+    <mergeCell ref="B971:B973"/>
+    <mergeCell ref="B902:B903"/>
+    <mergeCell ref="B1203:B1204"/>
+    <mergeCell ref="B643:B647"/>
+    <mergeCell ref="B892:B893"/>
+    <mergeCell ref="A1146:A1147"/>
+    <mergeCell ref="B1107:B1108"/>
+    <mergeCell ref="B295:B304"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="B536:B538"/>
+    <mergeCell ref="B998:B999"/>
+    <mergeCell ref="C163:C169"/>
+    <mergeCell ref="C325:C330"/>
+    <mergeCell ref="A1020:A1021"/>
+    <mergeCell ref="C926:C927"/>
+    <mergeCell ref="B1080:B1081"/>
+    <mergeCell ref="A847:A848"/>
+    <mergeCell ref="B882:B883"/>
+    <mergeCell ref="B1052:B1053"/>
+    <mergeCell ref="B709:B710"/>
+    <mergeCell ref="C552:C554"/>
+    <mergeCell ref="B439:B444"/>
+    <mergeCell ref="C408:C410"/>
+    <mergeCell ref="C964:C965"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="C766:C767"/>
+    <mergeCell ref="C873:C875"/>
+    <mergeCell ref="C930:C931"/>
+    <mergeCell ref="C618:C621"/>
+    <mergeCell ref="C1022:C1023"/>
+    <mergeCell ref="A1040:A1041"/>
+    <mergeCell ref="B1076:B1077"/>
+    <mergeCell ref="B725:B729"/>
+    <mergeCell ref="A856:A857"/>
+    <mergeCell ref="A1197:A1198"/>
+    <mergeCell ref="C484:C486"/>
+    <mergeCell ref="B1126:B1127"/>
+    <mergeCell ref="C351:C355"/>
+    <mergeCell ref="A1089:A1091"/>
+    <mergeCell ref="C1089:C1091"/>
+    <mergeCell ref="C517:C518"/>
+    <mergeCell ref="C499:C501"/>
+    <mergeCell ref="B1046:B1048"/>
+    <mergeCell ref="A1164:A1165"/>
+    <mergeCell ref="C1199:C1200"/>
+    <mergeCell ref="B380:B386"/>
+    <mergeCell ref="C436:C438"/>
+    <mergeCell ref="C898:C899"/>
+    <mergeCell ref="A687:A691"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="B476:B483"/>
+    <mergeCell ref="B528:B532"/>
+    <mergeCell ref="B958:B959"/>
+    <mergeCell ref="C1192:C1193"/>
+    <mergeCell ref="B586:B588"/>
+    <mergeCell ref="C885:C886"/>
+    <mergeCell ref="C989:C990"/>
+    <mergeCell ref="B880:B881"/>
+    <mergeCell ref="A1144:A1145"/>
+    <mergeCell ref="A814:A816"/>
+    <mergeCell ref="B484:B489"/>
+    <mergeCell ref="B468:B475"/>
+    <mergeCell ref="B405:B410"/>
+    <mergeCell ref="B894:B895"/>
+    <mergeCell ref="C1159:C1160"/>
+    <mergeCell ref="A692:A698"/>
+    <mergeCell ref="C1207:C1208"/>
+    <mergeCell ref="A1007:A1008"/>
+    <mergeCell ref="A1131:A1132"/>
+    <mergeCell ref="C208:C214"/>
+    <mergeCell ref="B1114:B1115"/>
+    <mergeCell ref="A1214:A1215"/>
+    <mergeCell ref="A1022:A1023"/>
+    <mergeCell ref="C840:C841"/>
+    <mergeCell ref="C380:C383"/>
+    <mergeCell ref="B1176:B1177"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C1000:C1001"/>
+    <mergeCell ref="A873:A875"/>
+    <mergeCell ref="A1133:A1134"/>
+    <mergeCell ref="A870:A872"/>
+    <mergeCell ref="C479:C480"/>
+    <mergeCell ref="A396:A404"/>
+    <mergeCell ref="A719:A724"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="A835:A836"/>
+    <mergeCell ref="A842:A844"/>
+    <mergeCell ref="C842:C844"/>
+    <mergeCell ref="C631:C634"/>
+    <mergeCell ref="C1002:C1003"/>
+    <mergeCell ref="A1173:A1175"/>
+    <mergeCell ref="C1126:C1127"/>
+    <mergeCell ref="B635:B638"/>
+    <mergeCell ref="A586:A588"/>
+    <mergeCell ref="B622:B624"/>
+    <mergeCell ref="C615:C617"/>
+    <mergeCell ref="A766:A767"/>
+    <mergeCell ref="C1078:C1079"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C958:C959"/>
+    <mergeCell ref="A598:A600"/>
+    <mergeCell ref="A1114:A1115"/>
+    <mergeCell ref="B655:B658"/>
+    <mergeCell ref="C1114:C1115"/>
+    <mergeCell ref="A1176:A1177"/>
+    <mergeCell ref="C781:C783"/>
+    <mergeCell ref="A956:A957"/>
+    <mergeCell ref="C1176:C1177"/>
+    <mergeCell ref="C914:C916"/>
+    <mergeCell ref="C188:C194"/>
+    <mergeCell ref="A417:A422"/>
+    <mergeCell ref="A431:A438"/>
+    <mergeCell ref="B1135:B1136"/>
+    <mergeCell ref="C420:C422"/>
+    <mergeCell ref="C987:C988"/>
+    <mergeCell ref="C547:C549"/>
+    <mergeCell ref="C991:C993"/>
+    <mergeCell ref="C764:C765"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B208:B217"/>
+    <mergeCell ref="B615:B617"/>
+    <mergeCell ref="B805:B810"/>
+    <mergeCell ref="A978:A979"/>
+    <mergeCell ref="A1103:A1104"/>
+    <mergeCell ref="B199:B207"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B547:B549"/>
+    <mergeCell ref="B991:B993"/>
+    <mergeCell ref="B1018:B1019"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A583:A585"/>
+    <mergeCell ref="B885:B886"/>
+    <mergeCell ref="A950:A951"/>
+    <mergeCell ref="B1024:B1026"/>
+    <mergeCell ref="B1096:B1099"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B1214:B1215"/>
+    <mergeCell ref="B1000:B1001"/>
+    <mergeCell ref="B1171:B1172"/>
+    <mergeCell ref="A1011:A1013"/>
+    <mergeCell ref="B873:B875"/>
+    <mergeCell ref="B1043:B1045"/>
+    <mergeCell ref="B396:B404"/>
+    <mergeCell ref="A539:A540"/>
+    <mergeCell ref="B719:B724"/>
+    <mergeCell ref="C539:C540"/>
+    <mergeCell ref="B687:B691"/>
+    <mergeCell ref="A941:A942"/>
+    <mergeCell ref="A935:A936"/>
+    <mergeCell ref="A635:A638"/>
+    <mergeCell ref="A607:A611"/>
+    <mergeCell ref="A541:A543"/>
+    <mergeCell ref="C663:C664"/>
+    <mergeCell ref="A1201:A1202"/>
+    <mergeCell ref="C1201:C1202"/>
+    <mergeCell ref="C1164:C1165"/>
+    <mergeCell ref="B1209:B1210"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="B659:B662"/>
+    <mergeCell ref="B1159:B1160"/>
+    <mergeCell ref="C1049:C1051"/>
+    <mergeCell ref="B555:B559"/>
+    <mergeCell ref="C864:C865"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="C699:C701"/>
+    <mergeCell ref="B1092:B1093"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A622:A624"/>
+    <mergeCell ref="B781:B783"/>
+    <mergeCell ref="C622:C624"/>
+    <mergeCell ref="C1171:C1172"/>
+    <mergeCell ref="A1135:A1136"/>
+    <mergeCell ref="B431:B438"/>
+    <mergeCell ref="C714:C718"/>
+    <mergeCell ref="A892:A893"/>
+    <mergeCell ref="B989:B990"/>
+    <mergeCell ref="A880:A881"/>
+    <mergeCell ref="C473:C475"/>
+    <mergeCell ref="C1080:C1081"/>
+    <mergeCell ref="C837:C839"/>
+    <mergeCell ref="C256:C262"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="B451:B458"/>
+    <mergeCell ref="C428:C430"/>
+    <mergeCell ref="C655:C658"/>
+    <mergeCell ref="C687:C691"/>
+    <mergeCell ref="B1016:B1017"/>
+    <mergeCell ref="B1184:B1185"/>
+    <mergeCell ref="A1209:A1210"/>
+    <mergeCell ref="A894:A895"/>
+    <mergeCell ref="A882:A883"/>
+    <mergeCell ref="A1052:A1053"/>
+    <mergeCell ref="B1020:B1021"/>
+    <mergeCell ref="A1203:A1204"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="C525:C527"/>
+    <mergeCell ref="A1188:A1189"/>
+    <mergeCell ref="A670:A674"/>
+    <mergeCell ref="A533:A535"/>
+    <mergeCell ref="A1162:A1163"/>
+    <mergeCell ref="C462:C464"/>
+    <mergeCell ref="C533:C535"/>
+    <mergeCell ref="A960:A961"/>
+    <mergeCell ref="C589:C591"/>
+    <mergeCell ref="C924:C925"/>
+    <mergeCell ref="C960:C961"/>
+    <mergeCell ref="C1016:C1017"/>
+    <mergeCell ref="C1162:C1163"/>
+    <mergeCell ref="B459:B467"/>
+    <mergeCell ref="C939:C940"/>
+    <mergeCell ref="C882:C883"/>
+    <mergeCell ref="C937:C938"/>
+    <mergeCell ref="C1052:C1053"/>
+    <mergeCell ref="B601:B603"/>
+    <mergeCell ref="C974:C975"/>
+    <mergeCell ref="C665:C669"/>
+    <mergeCell ref="B904:B905"/>
+    <mergeCell ref="C1203:C1204"/>
+    <mergeCell ref="C892:C893"/>
+    <mergeCell ref="C801:C804"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A749:A750"/>
+    <mergeCell ref="C1144:C1145"/>
+    <mergeCell ref="A612:A614"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C978:C979"/>
+    <mergeCell ref="C367:C369"/>
+    <mergeCell ref="C1103:C1104"/>
+    <mergeCell ref="A1043:A1045"/>
+    <mergeCell ref="C650:C654"/>
+    <mergeCell ref="B539:B540"/>
+    <mergeCell ref="A980:A981"/>
+    <mergeCell ref="C980:C981"/>
+    <mergeCell ref="A914:A916"/>
+    <mergeCell ref="B560:B562"/>
+    <mergeCell ref="B935:B936"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="B607:B611"/>
+    <mergeCell ref="B575:B577"/>
+    <mergeCell ref="A522:A527"/>
+    <mergeCell ref="B928:B929"/>
+    <mergeCell ref="A928:A929"/>
+    <mergeCell ref="C179:C185"/>
+    <mergeCell ref="C417:C419"/>
+    <mergeCell ref="C586:C588"/>
+    <mergeCell ref="C880:C881"/>
+    <mergeCell ref="C604:C606"/>
+    <mergeCell ref="A735:A739"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="A976:A977"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B864:B865"/>
+    <mergeCell ref="B1201:B1202"/>
+    <mergeCell ref="A514:A521"/>
+    <mergeCell ref="B490:B495"/>
+    <mergeCell ref="B670:B674"/>
+    <mergeCell ref="B824:B826"/>
+    <mergeCell ref="C305:C311"/>
+    <mergeCell ref="C1166:C1167"/>
+    <mergeCell ref="A639:A642"/>
+    <mergeCell ref="B1153:B1154"/>
+    <mergeCell ref="A1190:A1191"/>
+    <mergeCell ref="A888:A889"/>
+    <mergeCell ref="C583:C585"/>
+    <mergeCell ref="C1092:C1093"/>
+    <mergeCell ref="C377:C379"/>
+    <mergeCell ref="C746:C748"/>
+    <mergeCell ref="C1046:C1048"/>
+    <mergeCell ref="B980:B981"/>
+    <mergeCell ref="A560:A562"/>
+    <mergeCell ref="B952:B953"/>
+    <mergeCell ref="A1037:A1039"/>
+    <mergeCell ref="A502:A507"/>
+    <mergeCell ref="C692:C694"/>
+    <mergeCell ref="B840:B841"/>
+    <mergeCell ref="A536:A538"/>
+    <mergeCell ref="C465:C467"/>
+    <mergeCell ref="C976:C977"/>
+    <mergeCell ref="C536:C538"/>
+    <mergeCell ref="B417:B422"/>
+    <mergeCell ref="C1118:C1120"/>
+    <mergeCell ref="C740:C741"/>
+    <mergeCell ref="B1188:B1189"/>
+    <mergeCell ref="C1040:C1041"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A985:A986"/>
+    <mergeCell ref="A601:A603"/>
+    <mergeCell ref="C601:C603"/>
+    <mergeCell ref="A316:A324"/>
+    <mergeCell ref="C1168:C1169"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="A1178:A1179"/>
+    <mergeCell ref="C1178:C1179"/>
+    <mergeCell ref="A909:A910"/>
+    <mergeCell ref="A906:A907"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="B163:B169"/>
+    <mergeCell ref="C361:C364"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B533:B535"/>
+    <mergeCell ref="B1162:B1163"/>
+    <mergeCell ref="A663:A669"/>
+    <mergeCell ref="A932:A934"/>
+    <mergeCell ref="A1094:A1095"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="A982:A984"/>
+    <mergeCell ref="B572:B574"/>
+    <mergeCell ref="C751:C754"/>
+    <mergeCell ref="C982:C984"/>
+    <mergeCell ref="B316:B324"/>
+    <mergeCell ref="A1092:A1093"/>
+    <mergeCell ref="C454:C455"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C952:C953"/>
+    <mergeCell ref="A405:A410"/>
+    <mergeCell ref="A459:A467"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="B1089:B1091"/>
+    <mergeCell ref="A263:A272"/>
+    <mergeCell ref="A900:A901"/>
+    <mergeCell ref="B232:B238"/>
+    <mergeCell ref="B926:B927"/>
+    <mergeCell ref="B1164:B1165"/>
+    <mergeCell ref="C894:C895"/>
+    <mergeCell ref="C643:C644"/>
+    <mergeCell ref="A954:A955"/>
+    <mergeCell ref="C612:C614"/>
+    <mergeCell ref="A528:A532"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="B801:B804"/>
+    <mergeCell ref="B960:B961"/>
+    <mergeCell ref="C858:C859"/>
+    <mergeCell ref="C824:C826"/>
+    <mergeCell ref="C459:C461"/>
+    <mergeCell ref="C348:C350"/>
+    <mergeCell ref="C519:C521"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="B914:B916"/>
+    <mergeCell ref="B966:B967"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="C439:C441"/>
+    <mergeCell ref="C405:C407"/>
+    <mergeCell ref="C792:C794"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C784:C785"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B445:B450"/>
+    <mergeCell ref="B912:B913"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B777:B780"/>
+    <mergeCell ref="C550:C551"/>
+    <mergeCell ref="C557:C559"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="C870:C872"/>
+    <mergeCell ref="C490:C492"/>
+    <mergeCell ref="C835:C836"/>
+    <mergeCell ref="C902:C903"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="C423:C425"/>
+    <mergeCell ref="C511:C513"/>
+    <mergeCell ref="C170:C176"/>
+    <mergeCell ref="C675:C676"/>
+    <mergeCell ref="C560:C562"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C862:C863"/>
+    <mergeCell ref="B239:B245"/>
+    <mergeCell ref="B604:B606"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B114:B123"/>
+    <mergeCell ref="B730:B734"/>
+    <mergeCell ref="C451:C453"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="C225:C231"/>
+    <mergeCell ref="C124:C130"/>
+    <mergeCell ref="A1046:A1048"/>
+    <mergeCell ref="B948:B949"/>
+    <mergeCell ref="A380:A386"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="A273:A283"/>
+    <mergeCell ref="A952:A953"/>
+    <mergeCell ref="B847:B848"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="C1007:C1008"/>
+    <mergeCell ref="A490:A495"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="B764:B765"/>
+    <mergeCell ref="A648:A654"/>
+    <mergeCell ref="C199:C205"/>
+    <mergeCell ref="C411:C413"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="A939:A940"/>
+    <mergeCell ref="C896:C897"/>
+    <mergeCell ref="C956:C957"/>
+    <mergeCell ref="B854:B855"/>
+    <mergeCell ref="B370:B379"/>
+    <mergeCell ref="A989:A990"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="B974:B975"/>
+    <mergeCell ref="A555:A559"/>
+    <mergeCell ref="B766:B767"/>
+    <mergeCell ref="A904:A905"/>
+    <mergeCell ref="B496:B501"/>
+    <mergeCell ref="A996:A997"/>
+    <mergeCell ref="B976:B977"/>
+    <mergeCell ref="B856:B857"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A819:A821"/>
+    <mergeCell ref="C819:C821"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C758:C759"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B1056:B1057"/>
+    <mergeCell ref="C1186:C1187"/>
+    <mergeCell ref="B361:B369"/>
+    <mergeCell ref="B751:B754"/>
+    <mergeCell ref="B1173:B1175"/>
+    <mergeCell ref="B982:B984"/>
+    <mergeCell ref="B950:B951"/>
+    <mergeCell ref="C284:C290"/>
+    <mergeCell ref="A1027:A1028"/>
+    <mergeCell ref="B888:B889"/>
+    <mergeCell ref="C522:C524"/>
+    <mergeCell ref="C849:C850"/>
+    <mergeCell ref="C860:C861"/>
+    <mergeCell ref="C1146:C1147"/>
+    <mergeCell ref="A1014:A1015"/>
+    <mergeCell ref="A1182:A1183"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C814:C816"/>
+    <mergeCell ref="C555:C556"/>
+    <mergeCell ref="A964:A965"/>
+    <mergeCell ref="C847:C848"/>
+    <mergeCell ref="C1020:C1021"/>
+    <mergeCell ref="C580:C582"/>
+    <mergeCell ref="C387:C390"/>
+    <mergeCell ref="C704:C708"/>
+    <mergeCell ref="B867:B869"/>
+    <mergeCell ref="C1195:C1196"/>
+    <mergeCell ref="A411:A416"/>
+    <mergeCell ref="C541:C543"/>
+    <mergeCell ref="A943:A944"/>
+    <mergeCell ref="C943:C944"/>
+    <mergeCell ref="B1205:B1206"/>
+    <mergeCell ref="A232:A238"/>
+    <mergeCell ref="B898:B899"/>
+    <mergeCell ref="B563:B565"/>
+    <mergeCell ref="A572:A574"/>
+    <mergeCell ref="B962:B963"/>
+    <mergeCell ref="B1137:B1139"/>
+    <mergeCell ref="A878:A879"/>
+    <mergeCell ref="A948:A949"/>
+    <mergeCell ref="A1205:A1206"/>
+    <mergeCell ref="C1205:C1206"/>
+    <mergeCell ref="C1066:C1067"/>
+    <mergeCell ref="C1073:C1075"/>
+    <mergeCell ref="C1137:C1139"/>
+    <mergeCell ref="C906:C907"/>
+    <mergeCell ref="C711:C713"/>
+    <mergeCell ref="C1011:C1013"/>
+    <mergeCell ref="B595:B597"/>
+    <mergeCell ref="B1195:B1196"/>
+    <mergeCell ref="B541:B543"/>
+    <mergeCell ref="B978:B979"/>
+    <mergeCell ref="C1004:C1005"/>
+    <mergeCell ref="C742:C745"/>
+    <mergeCell ref="C356:C357"/>
+    <mergeCell ref="C719:C720"/>
+    <mergeCell ref="C941:C942"/>
+    <mergeCell ref="C263:C269"/>
+    <mergeCell ref="C1214:C1215"/>
+    <mergeCell ref="B746:B748"/>
+    <mergeCell ref="B906:B907"/>
+    <mergeCell ref="A991:A993"/>
+    <mergeCell ref="A862:A863"/>
+    <mergeCell ref="B578:B582"/>
+    <mergeCell ref="A1101:A1102"/>
+    <mergeCell ref="C1133:C1134"/>
+    <mergeCell ref="A1168:A1169"/>
+    <mergeCell ref="C1184:C1185"/>
+    <mergeCell ref="C1209:C1210"/>
+    <mergeCell ref="C1131:C1132"/>
+    <mergeCell ref="C1071:C1072"/>
+    <mergeCell ref="A962:A963"/>
+    <mergeCell ref="B1071:B1072"/>
+    <mergeCell ref="C962:C963"/>
+    <mergeCell ref="A445:A450"/>
+    <mergeCell ref="A575:A577"/>
+    <mergeCell ref="A746:A748"/>
+    <mergeCell ref="C448:C450"/>
+    <mergeCell ref="B1182:B1183"/>
+    <mergeCell ref="B964:B965"/>
+    <mergeCell ref="B1007:B1008"/>
+    <mergeCell ref="A755:A757"/>
+    <mergeCell ref="B1178:B1179"/>
+    <mergeCell ref="A675:A681"/>
+    <mergeCell ref="A798:A800"/>
+    <mergeCell ref="C798:C800"/>
+    <mergeCell ref="B1022:B1023"/>
+    <mergeCell ref="A912:A913"/>
+    <mergeCell ref="B1190:B1191"/>
+    <mergeCell ref="C912:C913"/>
+    <mergeCell ref="A496:A501"/>
+    <mergeCell ref="A1128:A1130"/>
+    <mergeCell ref="C645:C647"/>
+    <mergeCell ref="C1105:C1106"/>
+    <mergeCell ref="C1135:C1136"/>
+    <mergeCell ref="A1034:A1036"/>
+    <mergeCell ref="B784:B789"/>
+    <mergeCell ref="C1034:C1036"/>
+    <mergeCell ref="C904:C905"/>
+    <mergeCell ref="C702:C703"/>
+    <mergeCell ref="C598:C600"/>
+    <mergeCell ref="A1137:A1139"/>
+    <mergeCell ref="A1066:A1067"/>
+    <mergeCell ref="C774:C776"/>
+    <mergeCell ref="C1068:C1070"/>
+    <mergeCell ref="A1150:A1151"/>
+    <mergeCell ref="B1014:B1015"/>
+    <mergeCell ref="A1009:A1010"/>
+    <mergeCell ref="A725:A729"/>
+    <mergeCell ref="A830:A832"/>
+    <mergeCell ref="A824:A826"/>
+    <mergeCell ref="A758:A763"/>
+    <mergeCell ref="A629:A634"/>
+    <mergeCell ref="A1061:A1065"/>
+    <mergeCell ref="C950:C951"/>
+    <mergeCell ref="C932:C934"/>
+    <mergeCell ref="A795:A797"/>
+    <mergeCell ref="A968:A970"/>
+    <mergeCell ref="C900:C901"/>
+    <mergeCell ref="A569:A571"/>
+    <mergeCell ref="A902:A903"/>
+    <mergeCell ref="A1068:A1070"/>
+    <mergeCell ref="C822:C823"/>
+    <mergeCell ref="A1059:A1060"/>
+    <mergeCell ref="B941:B942"/>
+    <mergeCell ref="B876:B877"/>
+    <mergeCell ref="A845:A846"/>
+    <mergeCell ref="A1142:A1143"/>
+    <mergeCell ref="A896:A897"/>
+    <mergeCell ref="B544:B546"/>
+    <mergeCell ref="B811:B813"/>
+    <mergeCell ref="A1076:A1077"/>
+    <mergeCell ref="B1040:B1041"/>
+    <mergeCell ref="B896:B897"/>
+    <mergeCell ref="B1142:B1143"/>
+    <mergeCell ref="C635:C638"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="A1166:A1167"/>
+    <mergeCell ref="C928:C929"/>
+    <mergeCell ref="B758:B763"/>
+    <mergeCell ref="A1159:A1160"/>
+    <mergeCell ref="A1124:A1125"/>
+    <mergeCell ref="B1144:B1145"/>
+    <mergeCell ref="C856:C857"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="A1056:A1057"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C795:C797"/>
+    <mergeCell ref="C1056:C1057"/>
+    <mergeCell ref="C1063:C1065"/>
+    <mergeCell ref="B179:B187"/>
+    <mergeCell ref="A1071:A1072"/>
+    <mergeCell ref="A1153:A1154"/>
+    <mergeCell ref="A361:A369"/>
+    <mergeCell ref="A876:A877"/>
+    <mergeCell ref="C1085:C1086"/>
+    <mergeCell ref="C921:C923"/>
+    <mergeCell ref="B1112:B1113"/>
+    <mergeCell ref="A998:A999"/>
+    <mergeCell ref="C1112:C1113"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="B833:B834"/>
+    <mergeCell ref="B566:B568"/>
+    <mergeCell ref="C994:C995"/>
+    <mergeCell ref="B612:B614"/>
+    <mergeCell ref="A811:A813"/>
+    <mergeCell ref="A370:A379"/>
+    <mergeCell ref="C496:C498"/>
+    <mergeCell ref="A898:A899"/>
+    <mergeCell ref="B1103:B1104"/>
+    <mergeCell ref="A1085:A1086"/>
+    <mergeCell ref="A439:A444"/>
+    <mergeCell ref="A1073:A1075"/>
+    <mergeCell ref="A325:A333"/>
+    <mergeCell ref="B1146:B1147"/>
+    <mergeCell ref="C502:C504"/>
+    <mergeCell ref="B1118:B1120"/>
+    <mergeCell ref="C530:C532"/>
+    <mergeCell ref="C1059:C1060"/>
+    <mergeCell ref="A1096:A1099"/>
+    <mergeCell ref="B343:B350"/>
+    <mergeCell ref="C1173:C1175"/>
+    <mergeCell ref="B1037:B1039"/>
+    <mergeCell ref="B522:B527"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="C1029:C1030"/>
+    <mergeCell ref="B740:B745"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="B1105:B1106"/>
+    <mergeCell ref="B930:B931"/>
+    <mergeCell ref="C393:C395"/>
+    <mergeCell ref="B1168:B1169"/>
+    <mergeCell ref="A784:A789"/>
+    <mergeCell ref="A958:A959"/>
+    <mergeCell ref="A387:A395"/>
+    <mergeCell ref="A833:A834"/>
+    <mergeCell ref="A566:A568"/>
+    <mergeCell ref="B598:B600"/>
+    <mergeCell ref="C833:C834"/>
+    <mergeCell ref="A867:A869"/>
+    <mergeCell ref="C566:C568"/>
+    <mergeCell ref="C867:C869"/>
+    <mergeCell ref="C487:C489"/>
+    <mergeCell ref="C609:C611"/>
+    <mergeCell ref="B819:B821"/>
+    <mergeCell ref="C528:C529"/>
+    <mergeCell ref="B423:B430"/>
+    <mergeCell ref="A817:A818"/>
+    <mergeCell ref="B1128:B1130"/>
+    <mergeCell ref="A544:A546"/>
+    <mergeCell ref="A343:A350"/>
+    <mergeCell ref="A655:A658"/>
+    <mergeCell ref="A858:A861"/>
+    <mergeCell ref="C544:C546"/>
+    <mergeCell ref="A1078:A1079"/>
+    <mergeCell ref="A188:A198"/>
+    <mergeCell ref="B1192:B1193"/>
+    <mergeCell ref="A921:A923"/>
+    <mergeCell ref="B830:B832"/>
+    <mergeCell ref="B663:B669"/>
+    <mergeCell ref="B1166:B1167"/>
+    <mergeCell ref="A484:A489"/>
+    <mergeCell ref="C1190:C1191"/>
+    <mergeCell ref="A468:A475"/>
+    <mergeCell ref="A208:A217"/>
+    <mergeCell ref="B878:B879"/>
+    <mergeCell ref="B1011:B1013"/>
+    <mergeCell ref="C1043:C1045"/>
+    <mergeCell ref="A1080:A1081"/>
+    <mergeCell ref="B954:B955"/>
+    <mergeCell ref="A1192:A1193"/>
+    <mergeCell ref="A1148:A1149"/>
+    <mergeCell ref="A615:A617"/>
+    <mergeCell ref="C730:C734"/>
+    <mergeCell ref="B1073:B1075"/>
+    <mergeCell ref="A822:A823"/>
+    <mergeCell ref="C508:C510"/>
+    <mergeCell ref="C442:C444"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A595:A597"/>
+    <mergeCell ref="C402:C404"/>
+    <mergeCell ref="A837:A839"/>
+    <mergeCell ref="A764:A765"/>
+    <mergeCell ref="C595:C597"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="A1121:A1122"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="C1121:C1122"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C374:C376"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="B639:B642"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="B917:B918"/>
+    <mergeCell ref="C1142:C1143"/>
+    <mergeCell ref="A1105:A1106"/>
+    <mergeCell ref="A945:A947"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C239:C245"/>
+    <mergeCell ref="A246:A255"/>
+    <mergeCell ref="A1029:A1030"/>
+    <mergeCell ref="B890:B891"/>
+    <mergeCell ref="B968:B970"/>
+    <mergeCell ref="B817:B818"/>
+    <mergeCell ref="A451:A458"/>
+    <mergeCell ref="B858:B861"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="B675:B681"/>
+    <mergeCell ref="B1066:B1067"/>
+    <mergeCell ref="B798:B800"/>
+    <mergeCell ref="B188:B198"/>
+    <mergeCell ref="C830:C832"/>
+    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="B592:B594"/>
+    <mergeCell ref="B1029:B1030"/>
+    <mergeCell ref="A1002:A1005"/>
+    <mergeCell ref="A781:A783"/>
+    <mergeCell ref="B862:B863"/>
+    <mergeCell ref="C384:C386"/>
+    <mergeCell ref="C735:C739"/>
+    <mergeCell ref="A987:A988"/>
+    <mergeCell ref="A1107:A1108"/>
+    <mergeCell ref="A547:A549"/>
+    <mergeCell ref="C312:C315"/>
+    <mergeCell ref="C476:C478"/>
+    <mergeCell ref="A974:A975"/>
+    <mergeCell ref="C945:C947"/>
+    <mergeCell ref="C343:C347"/>
+    <mergeCell ref="C1107:C1108"/>
+    <mergeCell ref="C481:C483"/>
+    <mergeCell ref="C749:C750"/>
+    <mergeCell ref="C890:C891"/>
+    <mergeCell ref="A730:A734"/>
+    <mergeCell ref="C625:C628"/>
+    <mergeCell ref="B837:B839"/>
+    <mergeCell ref="C670:C674"/>
+    <mergeCell ref="C316:C322"/>
+    <mergeCell ref="B411:B416"/>
+    <mergeCell ref="B956:B957"/>
+    <mergeCell ref="B1027:B1028"/>
+    <mergeCell ref="A917:A918"/>
+    <mergeCell ref="C888:C889"/>
+    <mergeCell ref="A1207:A1208"/>
+    <mergeCell ref="A711:A718"/>
+    <mergeCell ref="B937:B938"/>
+    <mergeCell ref="B170:B178"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C648:C649"/>
+    <mergeCell ref="A919:A920"/>
+    <mergeCell ref="C1157:C1158"/>
+    <mergeCell ref="B1197:B1198"/>
+    <mergeCell ref="B768:B771"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A578:A582"/>
+    <mergeCell ref="B851:B852"/>
+    <mergeCell ref="B1148:B1149"/>
+    <mergeCell ref="B1087:B1088"/>
+    <mergeCell ref="A305:A315"/>
+    <mergeCell ref="A239:A245"/>
+    <mergeCell ref="A1195:A1196"/>
+    <mergeCell ref="B827:B829"/>
+    <mergeCell ref="C563:C565"/>
+    <mergeCell ref="C1182:C1183"/>
+    <mergeCell ref="B1207:B1208"/>
+    <mergeCell ref="B711:B718"/>
+    <mergeCell ref="B919:B920"/>
+    <mergeCell ref="B1157:B1158"/>
+    <mergeCell ref="B514:B521"/>
+    <mergeCell ref="A1109:A1110"/>
+    <mergeCell ref="C998:C999"/>
+    <mergeCell ref="C629:C630"/>
+    <mergeCell ref="C295:C301"/>
+    <mergeCell ref="C1098:C1099"/>
+    <mergeCell ref="C396:C399"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C876:C877"/>
+    <mergeCell ref="C935:C936"/>
+    <mergeCell ref="A840:A841"/>
+    <mergeCell ref="B939:B940"/>
+    <mergeCell ref="A1000:A1001"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B1155:B1156"/>
+    <mergeCell ref="A659:A662"/>
+    <mergeCell ref="B945:B947"/>
+    <mergeCell ref="B1101:B1102"/>
+    <mergeCell ref="B692:B698"/>
+    <mergeCell ref="C966:C967"/>
+    <mergeCell ref="B849:B850"/>
+    <mergeCell ref="A625:A628"/>
+    <mergeCell ref="A1126:A1127"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C1082:C1083"/>
+    <mergeCell ref="A423:A430"/>
+    <mergeCell ref="A790:A794"/>
+    <mergeCell ref="B702:B708"/>
+    <mergeCell ref="C1027:C1028"/>
+    <mergeCell ref="A179:A187"/>
+    <mergeCell ref="B351:B360"/>
+    <mergeCell ref="C1096:C1097"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B131:B139"/>
+    <mergeCell ref="C1054:C1055"/>
+    <mergeCell ref="A699:A701"/>
+    <mergeCell ref="A334:A342"/>
+    <mergeCell ref="B1124:B1125"/>
+    <mergeCell ref="C1128:C1130"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="A930:A931"/>
+    <mergeCell ref="A801:A804"/>
+    <mergeCell ref="C1153:C1154"/>
+    <mergeCell ref="A1032:A1033"/>
+    <mergeCell ref="A592:A594"/>
+    <mergeCell ref="C1032:C1033"/>
+    <mergeCell ref="C592:C594"/>
+    <mergeCell ref="A994:A995"/>
+    <mergeCell ref="C805:C807"/>
+    <mergeCell ref="A1118:A1120"/>
+    <mergeCell ref="A154:A162"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="A827:A829"/>
+    <mergeCell ref="C358:C360"/>
+    <mergeCell ref="C414:C416"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="A971:A973"/>
+    <mergeCell ref="A1082:A1083"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="A890:A891"/>
+    <mergeCell ref="C971:C973"/>
+    <mergeCell ref="C1109:C1110"/>
+    <mergeCell ref="C878:C879"/>
+    <mergeCell ref="A772:A776"/>
+    <mergeCell ref="B1054:B1055"/>
+    <mergeCell ref="B225:B231"/>
+    <mergeCell ref="B1049:B1051"/>
+    <mergeCell ref="C1061:C1062"/>
+    <mergeCell ref="B699:B701"/>
+    <mergeCell ref="B682:B686"/>
+    <mergeCell ref="A1211:A1213"/>
+    <mergeCell ref="A199:A207"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C514:C516"/>
+    <mergeCell ref="C760:C763"/>
+    <mergeCell ref="B154:B162"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C1101:C1102"/>
+    <mergeCell ref="C817:C818"/>
+    <mergeCell ref="A768:A771"/>
+    <mergeCell ref="A849:A850"/>
+    <mergeCell ref="C607:C608"/>
+    <mergeCell ref="C1037:C1039"/>
+    <mergeCell ref="B284:B294"/>
+    <mergeCell ref="C445:C447"/>
+    <mergeCell ref="C827:C829"/>
+    <mergeCell ref="B924:B925"/>
+    <mergeCell ref="C1094:C1095"/>
+    <mergeCell ref="B589:B591"/>
+    <mergeCell ref="A508:A513"/>
+    <mergeCell ref="C996:C997"/>
+    <mergeCell ref="A351:A360"/>
+    <mergeCell ref="C968:C970"/>
+    <mergeCell ref="B1059:B1060"/>
+    <mergeCell ref="A1054:A1055"/>
+    <mergeCell ref="B1085:B1086"/>
+    <mergeCell ref="C811:C813"/>
+    <mergeCell ref="C909:C910"/>
+    <mergeCell ref="C725:C729"/>
+    <mergeCell ref="C695:C698"/>
+    <mergeCell ref="B1082:B1083"/>
+    <mergeCell ref="B625:B628"/>
     <mergeCell ref="C215:C217"/>
     <mergeCell ref="A1157:A1158"/>
     <mergeCell ref="C790:C791"/>
@@ -27223,6 +28086,23 @@
     <mergeCell ref="C1150:C1151"/>
     <mergeCell ref="C1009:C1010"/>
     <mergeCell ref="A805:A810"/>
+    <mergeCell ref="A225:A231"/>
+    <mergeCell ref="C246:C252"/>
+    <mergeCell ref="B305:B315"/>
+    <mergeCell ref="A702:A708"/>
+    <mergeCell ref="B1078:B1079"/>
+    <mergeCell ref="B508:B513"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="A740:A745"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="C786:C789"/>
+    <mergeCell ref="B1009:B1010"/>
+    <mergeCell ref="C456:C458"/>
+    <mergeCell ref="A682:A686"/>
+    <mergeCell ref="B1034:B1036"/>
+    <mergeCell ref="B334:B342"/>
+    <mergeCell ref="B772:B776"/>
+    <mergeCell ref="A643:A647"/>
     <mergeCell ref="B648:B654"/>
     <mergeCell ref="C808:C810"/>
     <mergeCell ref="C468:C470"/>
@@ -27234,922 +28114,42 @@
     <mergeCell ref="C948:C949"/>
     <mergeCell ref="B987:B988"/>
     <mergeCell ref="B273:B283"/>
-    <mergeCell ref="A1211:A1213"/>
-    <mergeCell ref="A199:A207"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C514:C516"/>
-    <mergeCell ref="C760:C763"/>
-    <mergeCell ref="B154:B162"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C1101:C1102"/>
-    <mergeCell ref="C817:C818"/>
-    <mergeCell ref="A768:A771"/>
-    <mergeCell ref="A849:A850"/>
-    <mergeCell ref="C607:C608"/>
-    <mergeCell ref="C1037:C1039"/>
-    <mergeCell ref="B284:B294"/>
-    <mergeCell ref="C445:C447"/>
-    <mergeCell ref="C827:C829"/>
-    <mergeCell ref="B924:B925"/>
-    <mergeCell ref="C1094:C1095"/>
-    <mergeCell ref="B589:B591"/>
-    <mergeCell ref="A508:A513"/>
-    <mergeCell ref="C996:C997"/>
-    <mergeCell ref="A351:A360"/>
-    <mergeCell ref="C968:C970"/>
-    <mergeCell ref="B1059:B1060"/>
-    <mergeCell ref="A1054:A1055"/>
-    <mergeCell ref="B1085:B1086"/>
-    <mergeCell ref="C811:C813"/>
-    <mergeCell ref="C909:C910"/>
-    <mergeCell ref="C725:C729"/>
-    <mergeCell ref="C695:C698"/>
-    <mergeCell ref="B1082:B1083"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="A930:A931"/>
-    <mergeCell ref="A801:A804"/>
-    <mergeCell ref="C1153:C1154"/>
-    <mergeCell ref="A1032:A1033"/>
-    <mergeCell ref="A592:A594"/>
-    <mergeCell ref="C1032:C1033"/>
-    <mergeCell ref="C592:C594"/>
-    <mergeCell ref="A994:A995"/>
-    <mergeCell ref="C805:C807"/>
-    <mergeCell ref="A1118:A1120"/>
-    <mergeCell ref="A154:A162"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="A827:A829"/>
-    <mergeCell ref="C358:C360"/>
-    <mergeCell ref="C414:C416"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="A971:A973"/>
-    <mergeCell ref="A1082:A1083"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C876:C877"/>
-    <mergeCell ref="C935:C936"/>
-    <mergeCell ref="A840:A841"/>
-    <mergeCell ref="B939:B940"/>
-    <mergeCell ref="A1000:A1001"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B1155:B1156"/>
-    <mergeCell ref="A659:A662"/>
-    <mergeCell ref="B945:B947"/>
-    <mergeCell ref="B1101:B1102"/>
-    <mergeCell ref="B692:B698"/>
-    <mergeCell ref="C966:C967"/>
-    <mergeCell ref="B849:B850"/>
-    <mergeCell ref="A625:A628"/>
-    <mergeCell ref="A1126:A1127"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C1082:C1083"/>
-    <mergeCell ref="A423:A430"/>
-    <mergeCell ref="A790:A794"/>
-    <mergeCell ref="B702:B708"/>
-    <mergeCell ref="C1027:C1028"/>
-    <mergeCell ref="A179:A187"/>
-    <mergeCell ref="B351:B360"/>
-    <mergeCell ref="C1096:C1097"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B131:B139"/>
-    <mergeCell ref="C1054:C1055"/>
-    <mergeCell ref="A699:A701"/>
-    <mergeCell ref="A334:A342"/>
-    <mergeCell ref="B1124:B1125"/>
-    <mergeCell ref="C1128:C1130"/>
-    <mergeCell ref="A1199:A1200"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="A890:A891"/>
-    <mergeCell ref="C971:C973"/>
-    <mergeCell ref="C1109:C1110"/>
-    <mergeCell ref="C878:C879"/>
-    <mergeCell ref="A1207:A1208"/>
-    <mergeCell ref="A711:A718"/>
-    <mergeCell ref="B937:B938"/>
-    <mergeCell ref="B170:B178"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C648:C649"/>
-    <mergeCell ref="A919:A920"/>
-    <mergeCell ref="C1157:C1158"/>
-    <mergeCell ref="B1197:B1198"/>
-    <mergeCell ref="B768:B771"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A578:A582"/>
-    <mergeCell ref="B851:B852"/>
-    <mergeCell ref="B1148:B1149"/>
-    <mergeCell ref="B1087:B1088"/>
-    <mergeCell ref="A305:A315"/>
-    <mergeCell ref="A239:A245"/>
-    <mergeCell ref="A1195:A1196"/>
-    <mergeCell ref="B827:B829"/>
-    <mergeCell ref="C563:C565"/>
-    <mergeCell ref="C1182:C1183"/>
-    <mergeCell ref="B1207:B1208"/>
-    <mergeCell ref="B711:B718"/>
-    <mergeCell ref="B919:B920"/>
-    <mergeCell ref="B1157:B1158"/>
-    <mergeCell ref="B514:B521"/>
-    <mergeCell ref="A1109:A1110"/>
-    <mergeCell ref="C998:C999"/>
-    <mergeCell ref="C629:C630"/>
-    <mergeCell ref="C295:C301"/>
-    <mergeCell ref="C1098:C1099"/>
-    <mergeCell ref="C396:C399"/>
-    <mergeCell ref="A772:A776"/>
-    <mergeCell ref="B1054:B1055"/>
-    <mergeCell ref="B225:B231"/>
-    <mergeCell ref="B1049:B1051"/>
-    <mergeCell ref="C1061:C1062"/>
-    <mergeCell ref="B699:B701"/>
-    <mergeCell ref="B682:B686"/>
-    <mergeCell ref="B188:B198"/>
-    <mergeCell ref="C830:C832"/>
-    <mergeCell ref="B246:B255"/>
-    <mergeCell ref="B592:B594"/>
-    <mergeCell ref="B1029:B1030"/>
-    <mergeCell ref="A1002:A1005"/>
-    <mergeCell ref="A781:A783"/>
-    <mergeCell ref="B862:B863"/>
-    <mergeCell ref="C384:C386"/>
-    <mergeCell ref="C735:C739"/>
-    <mergeCell ref="A987:A988"/>
-    <mergeCell ref="A1107:A1108"/>
-    <mergeCell ref="A547:A549"/>
-    <mergeCell ref="C312:C315"/>
-    <mergeCell ref="C476:C478"/>
-    <mergeCell ref="A974:A975"/>
-    <mergeCell ref="C945:C947"/>
-    <mergeCell ref="C343:C347"/>
-    <mergeCell ref="C1107:C1108"/>
-    <mergeCell ref="A1112:A1113"/>
-    <mergeCell ref="C481:C483"/>
-    <mergeCell ref="C749:C750"/>
-    <mergeCell ref="C890:C891"/>
-    <mergeCell ref="A730:A734"/>
-    <mergeCell ref="C625:C628"/>
-    <mergeCell ref="B837:B839"/>
-    <mergeCell ref="B1121:B1122"/>
-    <mergeCell ref="C670:C674"/>
-    <mergeCell ref="C316:C322"/>
-    <mergeCell ref="B411:B416"/>
-    <mergeCell ref="B956:B957"/>
-    <mergeCell ref="B1027:B1028"/>
-    <mergeCell ref="A917:A918"/>
-    <mergeCell ref="C888:C889"/>
     <mergeCell ref="B814:B816"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A595:A597"/>
-    <mergeCell ref="C402:C404"/>
-    <mergeCell ref="A837:A839"/>
-    <mergeCell ref="A764:A765"/>
-    <mergeCell ref="C595:C597"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="A1121:A1122"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="C1121:C1122"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C374:C376"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="B639:B642"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="B917:B918"/>
-    <mergeCell ref="C1142:C1143"/>
-    <mergeCell ref="A1105:A1106"/>
-    <mergeCell ref="A945:A947"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C239:C245"/>
-    <mergeCell ref="A246:A255"/>
-    <mergeCell ref="A1029:A1030"/>
-    <mergeCell ref="B890:B891"/>
-    <mergeCell ref="B968:B970"/>
-    <mergeCell ref="B817:B818"/>
-    <mergeCell ref="A451:A458"/>
-    <mergeCell ref="B858:B861"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="B675:B681"/>
-    <mergeCell ref="B1066:B1067"/>
-    <mergeCell ref="B798:B800"/>
     <mergeCell ref="C777:C780"/>
     <mergeCell ref="C578:C579"/>
     <mergeCell ref="B749:B750"/>
+    <mergeCell ref="C682:C686"/>
+    <mergeCell ref="C985:C986"/>
+    <mergeCell ref="B618:B621"/>
+    <mergeCell ref="B1109:B1110"/>
+    <mergeCell ref="A1116:A1117"/>
+    <mergeCell ref="B1116:B1117"/>
+    <mergeCell ref="C1116:C1117"/>
+    <mergeCell ref="B387:B395"/>
+    <mergeCell ref="B943:B944"/>
+    <mergeCell ref="A1018:A1019"/>
+    <mergeCell ref="A1186:A1187"/>
+    <mergeCell ref="A1049:A1051"/>
+    <mergeCell ref="B1199:B1200"/>
+    <mergeCell ref="A937:A938"/>
+    <mergeCell ref="C768:C771"/>
+    <mergeCell ref="B985:B986"/>
+    <mergeCell ref="A924:A925"/>
+    <mergeCell ref="A618:A621"/>
+    <mergeCell ref="C1124:C1125"/>
+    <mergeCell ref="C721:C724"/>
+    <mergeCell ref="C1076:C1077"/>
+    <mergeCell ref="C493:C495"/>
+    <mergeCell ref="B1032:B1033"/>
+    <mergeCell ref="C431:C433"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A1199:A1200"/>
+    <mergeCell ref="A1112:A1113"/>
+    <mergeCell ref="B1121:B1122"/>
     <mergeCell ref="A926:A927"/>
     <mergeCell ref="A563:A565"/>
     <mergeCell ref="A864:A865"/>
     <mergeCell ref="C954:C955"/>
-    <mergeCell ref="A817:A818"/>
-    <mergeCell ref="B1128:B1130"/>
-    <mergeCell ref="A544:A546"/>
-    <mergeCell ref="A343:A350"/>
-    <mergeCell ref="A655:A658"/>
-    <mergeCell ref="A858:A861"/>
-    <mergeCell ref="C544:C546"/>
-    <mergeCell ref="A1078:A1079"/>
-    <mergeCell ref="A188:A198"/>
-    <mergeCell ref="B1192:B1193"/>
-    <mergeCell ref="A921:A923"/>
-    <mergeCell ref="B830:B832"/>
-    <mergeCell ref="B663:B669"/>
-    <mergeCell ref="B1166:B1167"/>
-    <mergeCell ref="A484:A489"/>
-    <mergeCell ref="C1190:C1191"/>
-    <mergeCell ref="A468:A475"/>
-    <mergeCell ref="A208:A217"/>
-    <mergeCell ref="B878:B879"/>
-    <mergeCell ref="B1011:B1013"/>
-    <mergeCell ref="C1043:C1045"/>
-    <mergeCell ref="A1080:A1081"/>
-    <mergeCell ref="B954:B955"/>
-    <mergeCell ref="A1192:A1193"/>
-    <mergeCell ref="A1148:A1149"/>
-    <mergeCell ref="A615:A617"/>
-    <mergeCell ref="C730:C734"/>
-    <mergeCell ref="B1073:B1075"/>
-    <mergeCell ref="A822:A823"/>
-    <mergeCell ref="C508:C510"/>
-    <mergeCell ref="C442:C444"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="C502:C504"/>
-    <mergeCell ref="B1118:B1120"/>
-    <mergeCell ref="C530:C532"/>
-    <mergeCell ref="C1059:C1060"/>
-    <mergeCell ref="A1096:A1099"/>
-    <mergeCell ref="B343:B350"/>
-    <mergeCell ref="C1173:C1175"/>
-    <mergeCell ref="B1037:B1039"/>
-    <mergeCell ref="B522:B527"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="C1029:C1030"/>
-    <mergeCell ref="B740:B745"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="B1105:B1106"/>
-    <mergeCell ref="B930:B931"/>
-    <mergeCell ref="C393:C395"/>
-    <mergeCell ref="B1168:B1169"/>
-    <mergeCell ref="A784:A789"/>
-    <mergeCell ref="A958:A959"/>
-    <mergeCell ref="A387:A395"/>
-    <mergeCell ref="A833:A834"/>
-    <mergeCell ref="A566:A568"/>
-    <mergeCell ref="B598:B600"/>
-    <mergeCell ref="C833:C834"/>
-    <mergeCell ref="A867:A869"/>
-    <mergeCell ref="C566:C568"/>
-    <mergeCell ref="C867:C869"/>
-    <mergeCell ref="C487:C489"/>
-    <mergeCell ref="C609:C611"/>
-    <mergeCell ref="B819:B821"/>
-    <mergeCell ref="C528:C529"/>
-    <mergeCell ref="B423:B430"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="A1056:A1057"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C795:C797"/>
-    <mergeCell ref="C1056:C1057"/>
-    <mergeCell ref="C1063:C1065"/>
-    <mergeCell ref="B179:B187"/>
-    <mergeCell ref="A1071:A1072"/>
-    <mergeCell ref="A1153:A1154"/>
-    <mergeCell ref="A361:A369"/>
-    <mergeCell ref="A876:A877"/>
-    <mergeCell ref="C1085:C1086"/>
-    <mergeCell ref="C921:C923"/>
-    <mergeCell ref="B1112:B1113"/>
-    <mergeCell ref="A998:A999"/>
-    <mergeCell ref="C1112:C1113"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="B833:B834"/>
-    <mergeCell ref="B566:B568"/>
-    <mergeCell ref="C994:C995"/>
-    <mergeCell ref="B612:B614"/>
-    <mergeCell ref="A811:A813"/>
-    <mergeCell ref="A370:A379"/>
-    <mergeCell ref="C496:C498"/>
-    <mergeCell ref="A898:A899"/>
-    <mergeCell ref="B1103:B1104"/>
-    <mergeCell ref="A1085:A1086"/>
-    <mergeCell ref="A439:A444"/>
-    <mergeCell ref="A1073:A1075"/>
-    <mergeCell ref="A325:A333"/>
-    <mergeCell ref="B1146:B1147"/>
-    <mergeCell ref="C822:C823"/>
-    <mergeCell ref="A1059:A1060"/>
-    <mergeCell ref="B941:B942"/>
-    <mergeCell ref="B876:B877"/>
-    <mergeCell ref="A845:A846"/>
-    <mergeCell ref="A1142:A1143"/>
-    <mergeCell ref="A896:A897"/>
-    <mergeCell ref="B544:B546"/>
-    <mergeCell ref="B811:B813"/>
-    <mergeCell ref="A1076:A1077"/>
-    <mergeCell ref="B1040:B1041"/>
-    <mergeCell ref="B896:B897"/>
-    <mergeCell ref="B1142:B1143"/>
-    <mergeCell ref="C635:C638"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="A1166:A1167"/>
-    <mergeCell ref="C928:C929"/>
-    <mergeCell ref="B758:B763"/>
-    <mergeCell ref="A496:A501"/>
-    <mergeCell ref="A1128:A1130"/>
-    <mergeCell ref="C645:C647"/>
-    <mergeCell ref="C1105:C1106"/>
-    <mergeCell ref="C1135:C1136"/>
-    <mergeCell ref="A1034:A1036"/>
-    <mergeCell ref="B784:B789"/>
-    <mergeCell ref="C1034:C1036"/>
-    <mergeCell ref="C904:C905"/>
-    <mergeCell ref="C702:C703"/>
-    <mergeCell ref="C598:C600"/>
-    <mergeCell ref="A1137:A1139"/>
-    <mergeCell ref="A1066:A1067"/>
-    <mergeCell ref="C774:C776"/>
-    <mergeCell ref="C1068:C1070"/>
-    <mergeCell ref="A1150:A1151"/>
-    <mergeCell ref="B1014:B1015"/>
-    <mergeCell ref="A1009:A1010"/>
-    <mergeCell ref="A725:A729"/>
-    <mergeCell ref="A830:A832"/>
-    <mergeCell ref="A824:A826"/>
-    <mergeCell ref="A1159:A1160"/>
-    <mergeCell ref="A758:A763"/>
-    <mergeCell ref="C1214:C1215"/>
-    <mergeCell ref="B746:B748"/>
-    <mergeCell ref="B906:B907"/>
-    <mergeCell ref="A991:A993"/>
-    <mergeCell ref="A862:A863"/>
-    <mergeCell ref="B578:B582"/>
-    <mergeCell ref="A1101:A1102"/>
-    <mergeCell ref="C1133:C1134"/>
-    <mergeCell ref="A1168:A1169"/>
-    <mergeCell ref="C1184:C1185"/>
-    <mergeCell ref="C1209:C1210"/>
-    <mergeCell ref="C1131:C1132"/>
-    <mergeCell ref="C1071:C1072"/>
-    <mergeCell ref="A962:A963"/>
-    <mergeCell ref="B1071:B1072"/>
-    <mergeCell ref="C962:C963"/>
-    <mergeCell ref="A445:A450"/>
-    <mergeCell ref="A575:A577"/>
-    <mergeCell ref="A746:A748"/>
-    <mergeCell ref="C448:C450"/>
-    <mergeCell ref="B1182:B1183"/>
-    <mergeCell ref="B964:B965"/>
-    <mergeCell ref="B1007:B1008"/>
-    <mergeCell ref="A755:A757"/>
-    <mergeCell ref="B1178:B1179"/>
-    <mergeCell ref="A675:A681"/>
-    <mergeCell ref="A798:A800"/>
-    <mergeCell ref="C798:C800"/>
-    <mergeCell ref="B1022:B1023"/>
-    <mergeCell ref="A912:A913"/>
-    <mergeCell ref="B1190:B1191"/>
-    <mergeCell ref="C912:C913"/>
-    <mergeCell ref="C1195:C1196"/>
-    <mergeCell ref="A411:A416"/>
-    <mergeCell ref="C541:C543"/>
-    <mergeCell ref="A943:A944"/>
-    <mergeCell ref="C943:C944"/>
-    <mergeCell ref="B1205:B1206"/>
-    <mergeCell ref="A232:A238"/>
-    <mergeCell ref="B898:B899"/>
-    <mergeCell ref="B563:B565"/>
-    <mergeCell ref="A572:A574"/>
-    <mergeCell ref="B962:B963"/>
-    <mergeCell ref="B1137:B1139"/>
-    <mergeCell ref="A878:A879"/>
-    <mergeCell ref="A948:A949"/>
-    <mergeCell ref="A1205:A1206"/>
-    <mergeCell ref="C1205:C1206"/>
-    <mergeCell ref="C1066:C1067"/>
-    <mergeCell ref="C1073:C1075"/>
-    <mergeCell ref="C1137:C1139"/>
-    <mergeCell ref="C906:C907"/>
-    <mergeCell ref="C711:C713"/>
-    <mergeCell ref="C1011:C1013"/>
-    <mergeCell ref="B595:B597"/>
-    <mergeCell ref="B1195:B1196"/>
-    <mergeCell ref="B541:B543"/>
-    <mergeCell ref="B978:B979"/>
-    <mergeCell ref="C1004:C1005"/>
-    <mergeCell ref="C742:C745"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="C719:C720"/>
-    <mergeCell ref="C941:C942"/>
-    <mergeCell ref="C263:C269"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A819:A821"/>
-    <mergeCell ref="C819:C821"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C758:C759"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B1056:B1057"/>
-    <mergeCell ref="C1186:C1187"/>
-    <mergeCell ref="B361:B369"/>
-    <mergeCell ref="B751:B754"/>
-    <mergeCell ref="B1173:B1175"/>
-    <mergeCell ref="B982:B984"/>
-    <mergeCell ref="B950:B951"/>
-    <mergeCell ref="C284:C290"/>
-    <mergeCell ref="A1027:A1028"/>
-    <mergeCell ref="B888:B889"/>
-    <mergeCell ref="C522:C524"/>
-    <mergeCell ref="C849:C850"/>
-    <mergeCell ref="C860:C861"/>
-    <mergeCell ref="C1146:C1147"/>
-    <mergeCell ref="A1014:A1015"/>
-    <mergeCell ref="A1182:A1183"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C814:C816"/>
-    <mergeCell ref="C555:C556"/>
-    <mergeCell ref="A964:A965"/>
-    <mergeCell ref="C847:C848"/>
-    <mergeCell ref="C1020:C1021"/>
-    <mergeCell ref="C580:C582"/>
-    <mergeCell ref="C387:C390"/>
-    <mergeCell ref="C704:C708"/>
-    <mergeCell ref="B867:B869"/>
-    <mergeCell ref="A629:A634"/>
-    <mergeCell ref="A1061:A1065"/>
-    <mergeCell ref="C950:C951"/>
-    <mergeCell ref="C932:C934"/>
-    <mergeCell ref="A795:A797"/>
-    <mergeCell ref="A968:A970"/>
-    <mergeCell ref="C900:C901"/>
-    <mergeCell ref="A569:A571"/>
-    <mergeCell ref="A902:A903"/>
-    <mergeCell ref="C124:C130"/>
-    <mergeCell ref="A1046:A1048"/>
-    <mergeCell ref="B948:B949"/>
-    <mergeCell ref="A380:A386"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="A273:A283"/>
-    <mergeCell ref="A952:A953"/>
-    <mergeCell ref="B847:B848"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="C1007:C1008"/>
-    <mergeCell ref="A490:A495"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="B764:B765"/>
-    <mergeCell ref="A648:A654"/>
-    <mergeCell ref="C199:C205"/>
-    <mergeCell ref="C411:C413"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="A939:A940"/>
-    <mergeCell ref="C896:C897"/>
-    <mergeCell ref="C956:C957"/>
-    <mergeCell ref="B854:B855"/>
-    <mergeCell ref="B370:B379"/>
-    <mergeCell ref="A989:A990"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C784:C785"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="B445:B450"/>
-    <mergeCell ref="B912:B913"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B777:B780"/>
-    <mergeCell ref="C550:C551"/>
-    <mergeCell ref="C557:C559"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="C131:C137"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="C870:C872"/>
-    <mergeCell ref="C490:C492"/>
-    <mergeCell ref="C835:C836"/>
-    <mergeCell ref="C902:C903"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="C423:C425"/>
-    <mergeCell ref="C511:C513"/>
-    <mergeCell ref="C170:C176"/>
-    <mergeCell ref="C675:C676"/>
-    <mergeCell ref="C560:C562"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C862:C863"/>
-    <mergeCell ref="B239:B245"/>
-    <mergeCell ref="B604:B606"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="B114:B123"/>
-    <mergeCell ref="B730:B734"/>
-    <mergeCell ref="C451:C453"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="C225:C231"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C952:C953"/>
-    <mergeCell ref="A405:A410"/>
-    <mergeCell ref="A459:A467"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="B1089:B1091"/>
-    <mergeCell ref="A263:A272"/>
-    <mergeCell ref="A900:A901"/>
-    <mergeCell ref="B232:B238"/>
-    <mergeCell ref="B926:B927"/>
-    <mergeCell ref="B1164:B1165"/>
-    <mergeCell ref="C894:C895"/>
-    <mergeCell ref="C643:C644"/>
-    <mergeCell ref="A954:A955"/>
-    <mergeCell ref="C612:C614"/>
-    <mergeCell ref="A528:A532"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="B801:B804"/>
-    <mergeCell ref="B960:B961"/>
-    <mergeCell ref="C858:C859"/>
-    <mergeCell ref="C824:C826"/>
-    <mergeCell ref="C459:C461"/>
-    <mergeCell ref="C348:C350"/>
-    <mergeCell ref="C519:C521"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="B914:B916"/>
-    <mergeCell ref="B966:B967"/>
-    <mergeCell ref="C218:C224"/>
-    <mergeCell ref="C439:C441"/>
-    <mergeCell ref="C405:C407"/>
-    <mergeCell ref="C792:C794"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A985:A986"/>
-    <mergeCell ref="A601:A603"/>
-    <mergeCell ref="C601:C603"/>
-    <mergeCell ref="A316:A324"/>
-    <mergeCell ref="C1168:C1169"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="A1178:A1179"/>
-    <mergeCell ref="C1178:C1179"/>
-    <mergeCell ref="A909:A910"/>
-    <mergeCell ref="A906:A907"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="C361:C364"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="B533:B535"/>
-    <mergeCell ref="B1162:B1163"/>
-    <mergeCell ref="A663:A669"/>
-    <mergeCell ref="A932:A934"/>
-    <mergeCell ref="A1094:A1095"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="A982:A984"/>
-    <mergeCell ref="B572:B574"/>
-    <mergeCell ref="C751:C754"/>
-    <mergeCell ref="C982:C984"/>
-    <mergeCell ref="B316:B324"/>
-    <mergeCell ref="A1092:A1093"/>
-    <mergeCell ref="C454:C455"/>
-    <mergeCell ref="B218:B224"/>
-    <mergeCell ref="B974:B975"/>
-    <mergeCell ref="A555:A559"/>
-    <mergeCell ref="B766:B767"/>
-    <mergeCell ref="A904:A905"/>
-    <mergeCell ref="B496:B501"/>
-    <mergeCell ref="A1068:A1070"/>
-    <mergeCell ref="A996:A997"/>
-    <mergeCell ref="A1124:A1125"/>
-    <mergeCell ref="B976:B977"/>
-    <mergeCell ref="B1144:B1145"/>
-    <mergeCell ref="B1201:B1202"/>
-    <mergeCell ref="A514:A521"/>
-    <mergeCell ref="B490:B495"/>
-    <mergeCell ref="B670:B674"/>
-    <mergeCell ref="B824:B826"/>
-    <mergeCell ref="C305:C311"/>
-    <mergeCell ref="C1166:C1167"/>
-    <mergeCell ref="A639:A642"/>
-    <mergeCell ref="B1153:B1154"/>
-    <mergeCell ref="A1190:A1191"/>
-    <mergeCell ref="A888:A889"/>
-    <mergeCell ref="C583:C585"/>
-    <mergeCell ref="C1092:C1093"/>
-    <mergeCell ref="C377:C379"/>
-    <mergeCell ref="C746:C748"/>
-    <mergeCell ref="C1046:C1048"/>
-    <mergeCell ref="B980:B981"/>
-    <mergeCell ref="A560:A562"/>
-    <mergeCell ref="B952:B953"/>
-    <mergeCell ref="A1037:A1039"/>
-    <mergeCell ref="A502:A507"/>
-    <mergeCell ref="C692:C694"/>
-    <mergeCell ref="B840:B841"/>
-    <mergeCell ref="A536:A538"/>
-    <mergeCell ref="C465:C467"/>
-    <mergeCell ref="C976:C977"/>
-    <mergeCell ref="C536:C538"/>
-    <mergeCell ref="B417:B422"/>
-    <mergeCell ref="C1118:C1120"/>
-    <mergeCell ref="C740:C741"/>
-    <mergeCell ref="B1188:B1189"/>
-    <mergeCell ref="C1040:C1041"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A749:A750"/>
-    <mergeCell ref="C1144:C1145"/>
-    <mergeCell ref="A612:A614"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C978:C979"/>
-    <mergeCell ref="C367:C369"/>
-    <mergeCell ref="C1103:C1104"/>
-    <mergeCell ref="A1043:A1045"/>
-    <mergeCell ref="C650:C654"/>
-    <mergeCell ref="B539:B540"/>
-    <mergeCell ref="A980:A981"/>
-    <mergeCell ref="C980:C981"/>
-    <mergeCell ref="A914:A916"/>
-    <mergeCell ref="B560:B562"/>
-    <mergeCell ref="B935:B936"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="B607:B611"/>
-    <mergeCell ref="B575:B577"/>
-    <mergeCell ref="A522:A527"/>
-    <mergeCell ref="B928:B929"/>
-    <mergeCell ref="A928:A929"/>
-    <mergeCell ref="C179:C185"/>
-    <mergeCell ref="C417:C419"/>
-    <mergeCell ref="C586:C588"/>
-    <mergeCell ref="C880:C881"/>
-    <mergeCell ref="C604:C606"/>
-    <mergeCell ref="A1209:A1210"/>
-    <mergeCell ref="A894:A895"/>
-    <mergeCell ref="A882:A883"/>
-    <mergeCell ref="A1052:A1053"/>
-    <mergeCell ref="B1020:B1021"/>
-    <mergeCell ref="A1203:A1204"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="C525:C527"/>
-    <mergeCell ref="A1188:A1189"/>
-    <mergeCell ref="A670:A674"/>
-    <mergeCell ref="A533:A535"/>
-    <mergeCell ref="A1162:A1163"/>
-    <mergeCell ref="C462:C464"/>
-    <mergeCell ref="C533:C535"/>
-    <mergeCell ref="A960:A961"/>
-    <mergeCell ref="C589:C591"/>
-    <mergeCell ref="C924:C925"/>
-    <mergeCell ref="C960:C961"/>
-    <mergeCell ref="C1016:C1017"/>
-    <mergeCell ref="C1162:C1163"/>
-    <mergeCell ref="B459:B467"/>
-    <mergeCell ref="C939:C940"/>
-    <mergeCell ref="C882:C883"/>
-    <mergeCell ref="C937:C938"/>
-    <mergeCell ref="C1052:C1053"/>
-    <mergeCell ref="B601:B603"/>
-    <mergeCell ref="C974:C975"/>
-    <mergeCell ref="C665:C669"/>
-    <mergeCell ref="B904:B905"/>
-    <mergeCell ref="C1203:C1204"/>
-    <mergeCell ref="C892:C893"/>
-    <mergeCell ref="C801:C804"/>
-    <mergeCell ref="A735:A739"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="A976:A977"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B864:B865"/>
-    <mergeCell ref="B1209:B1210"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="B659:B662"/>
-    <mergeCell ref="B1159:B1160"/>
-    <mergeCell ref="C1049:C1051"/>
-    <mergeCell ref="B555:B559"/>
-    <mergeCell ref="C864:C865"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="C699:C701"/>
-    <mergeCell ref="B1092:B1093"/>
-    <mergeCell ref="A114:A123"/>
-    <mergeCell ref="A622:A624"/>
-    <mergeCell ref="B781:B783"/>
-    <mergeCell ref="C622:C624"/>
-    <mergeCell ref="C1171:C1172"/>
-    <mergeCell ref="A1135:A1136"/>
-    <mergeCell ref="B431:B438"/>
-    <mergeCell ref="C714:C718"/>
-    <mergeCell ref="A892:A893"/>
-    <mergeCell ref="B989:B990"/>
-    <mergeCell ref="A880:A881"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A583:A585"/>
-    <mergeCell ref="B885:B886"/>
-    <mergeCell ref="A950:A951"/>
-    <mergeCell ref="B1024:B1026"/>
-    <mergeCell ref="B1096:B1099"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B1214:B1215"/>
-    <mergeCell ref="B1000:B1001"/>
-    <mergeCell ref="B1171:B1172"/>
-    <mergeCell ref="A1011:A1013"/>
-    <mergeCell ref="B873:B875"/>
-    <mergeCell ref="B1043:B1045"/>
-    <mergeCell ref="B396:B404"/>
-    <mergeCell ref="A539:A540"/>
-    <mergeCell ref="B719:B724"/>
-    <mergeCell ref="C539:C540"/>
-    <mergeCell ref="B687:B691"/>
-    <mergeCell ref="A941:A942"/>
-    <mergeCell ref="A935:A936"/>
-    <mergeCell ref="A635:A638"/>
-    <mergeCell ref="A607:A611"/>
-    <mergeCell ref="A541:A543"/>
-    <mergeCell ref="C663:C664"/>
-    <mergeCell ref="A1201:A1202"/>
-    <mergeCell ref="C1201:C1202"/>
-    <mergeCell ref="C1164:C1165"/>
-    <mergeCell ref="C473:C475"/>
-    <mergeCell ref="C1080:C1081"/>
-    <mergeCell ref="C837:C839"/>
-    <mergeCell ref="C256:C262"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="B451:B458"/>
-    <mergeCell ref="C428:C430"/>
-    <mergeCell ref="C655:C658"/>
-    <mergeCell ref="C687:C691"/>
-    <mergeCell ref="B1016:B1017"/>
-    <mergeCell ref="B1184:B1185"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C958:C959"/>
-    <mergeCell ref="A598:A600"/>
-    <mergeCell ref="A1114:A1115"/>
-    <mergeCell ref="B655:B658"/>
-    <mergeCell ref="C1114:C1115"/>
-    <mergeCell ref="A1176:A1177"/>
-    <mergeCell ref="C781:C783"/>
-    <mergeCell ref="A956:A957"/>
-    <mergeCell ref="C1176:C1177"/>
-    <mergeCell ref="C914:C916"/>
-    <mergeCell ref="C188:C194"/>
-    <mergeCell ref="A417:A422"/>
-    <mergeCell ref="A431:A438"/>
-    <mergeCell ref="B1135:B1136"/>
-    <mergeCell ref="C420:C422"/>
-    <mergeCell ref="C987:C988"/>
-    <mergeCell ref="C547:C549"/>
-    <mergeCell ref="C991:C993"/>
-    <mergeCell ref="C764:C765"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="C1207:C1208"/>
-    <mergeCell ref="A1007:A1008"/>
-    <mergeCell ref="A1131:A1132"/>
-    <mergeCell ref="C208:C214"/>
-    <mergeCell ref="B1114:B1115"/>
-    <mergeCell ref="A1214:A1215"/>
-    <mergeCell ref="A1022:A1023"/>
-    <mergeCell ref="C840:C841"/>
-    <mergeCell ref="C380:C383"/>
-    <mergeCell ref="B1176:B1177"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C1000:C1001"/>
-    <mergeCell ref="A873:A875"/>
-    <mergeCell ref="A1133:A1134"/>
-    <mergeCell ref="A870:A872"/>
-    <mergeCell ref="C479:C480"/>
-    <mergeCell ref="A396:A404"/>
-    <mergeCell ref="A719:A724"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="A835:A836"/>
-    <mergeCell ref="A842:A844"/>
-    <mergeCell ref="C842:C844"/>
-    <mergeCell ref="C631:C634"/>
-    <mergeCell ref="C1002:C1003"/>
-    <mergeCell ref="A1173:A1175"/>
-    <mergeCell ref="C1126:C1127"/>
-    <mergeCell ref="B635:B638"/>
-    <mergeCell ref="A586:A588"/>
-    <mergeCell ref="B622:B624"/>
-    <mergeCell ref="C615:C617"/>
-    <mergeCell ref="A766:A767"/>
-    <mergeCell ref="C1078:C1079"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A1197:A1198"/>
-    <mergeCell ref="C484:C486"/>
-    <mergeCell ref="B1126:B1127"/>
-    <mergeCell ref="C351:C355"/>
-    <mergeCell ref="A1089:A1091"/>
-    <mergeCell ref="C1089:C1091"/>
-    <mergeCell ref="C517:C518"/>
-    <mergeCell ref="C499:C501"/>
-    <mergeCell ref="B1046:B1048"/>
-    <mergeCell ref="A1164:A1165"/>
-    <mergeCell ref="C1199:C1200"/>
-    <mergeCell ref="B380:B386"/>
-    <mergeCell ref="C436:C438"/>
-    <mergeCell ref="C898:C899"/>
-    <mergeCell ref="A687:A691"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="B476:B483"/>
-    <mergeCell ref="B528:B532"/>
-    <mergeCell ref="B958:B959"/>
-    <mergeCell ref="C1192:C1193"/>
-    <mergeCell ref="B586:B588"/>
-    <mergeCell ref="C885:C886"/>
-    <mergeCell ref="C989:C990"/>
-    <mergeCell ref="B880:B881"/>
-    <mergeCell ref="A1144:A1145"/>
-    <mergeCell ref="A814:A816"/>
-    <mergeCell ref="B484:B489"/>
-    <mergeCell ref="B468:B475"/>
-    <mergeCell ref="B208:B217"/>
-    <mergeCell ref="B405:B410"/>
-    <mergeCell ref="B894:B895"/>
-    <mergeCell ref="C1159:C1160"/>
-    <mergeCell ref="A692:A698"/>
-    <mergeCell ref="B615:B617"/>
-    <mergeCell ref="B805:B810"/>
-    <mergeCell ref="A978:A979"/>
-    <mergeCell ref="A1103:A1104"/>
-    <mergeCell ref="B199:B207"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="B547:B549"/>
-    <mergeCell ref="B991:B993"/>
-    <mergeCell ref="B1018:B1019"/>
-    <mergeCell ref="B1203:B1204"/>
-    <mergeCell ref="B643:B647"/>
-    <mergeCell ref="B892:B893"/>
-    <mergeCell ref="A1146:A1147"/>
-    <mergeCell ref="B1107:B1108"/>
-    <mergeCell ref="B295:B304"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="B536:B538"/>
-    <mergeCell ref="B998:B999"/>
-    <mergeCell ref="C163:C169"/>
-    <mergeCell ref="C325:C330"/>
-    <mergeCell ref="A1020:A1021"/>
-    <mergeCell ref="C926:C927"/>
-    <mergeCell ref="B1080:B1081"/>
-    <mergeCell ref="A847:A848"/>
-    <mergeCell ref="B882:B883"/>
-    <mergeCell ref="B1052:B1053"/>
-    <mergeCell ref="B709:B710"/>
-    <mergeCell ref="C552:C554"/>
-    <mergeCell ref="B439:B444"/>
-    <mergeCell ref="C408:C410"/>
-    <mergeCell ref="C964:C965"/>
-    <mergeCell ref="C270:C272"/>
-    <mergeCell ref="C766:C767"/>
-    <mergeCell ref="C873:C875"/>
-    <mergeCell ref="C930:C931"/>
-    <mergeCell ref="C618:C621"/>
-    <mergeCell ref="C1022:C1023"/>
-    <mergeCell ref="A1040:A1041"/>
-    <mergeCell ref="B1076:B1077"/>
-    <mergeCell ref="B725:B729"/>
-    <mergeCell ref="A856:A857"/>
-    <mergeCell ref="B856:B857"/>
-    <mergeCell ref="C856:C857"/>
-    <mergeCell ref="A1180:A1181"/>
-    <mergeCell ref="B1180:B1181"/>
-    <mergeCell ref="C1180:C1181"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B845:B846"/>
-    <mergeCell ref="B502:B507"/>
-    <mergeCell ref="B629:B634"/>
-    <mergeCell ref="B1061:B1065"/>
-    <mergeCell ref="B932:B934"/>
-    <mergeCell ref="B996:B997"/>
-    <mergeCell ref="B795:B797"/>
-    <mergeCell ref="B569:B571"/>
-    <mergeCell ref="B909:B910"/>
-    <mergeCell ref="B870:B872"/>
-    <mergeCell ref="A295:A304"/>
-    <mergeCell ref="B1068:B1070"/>
-    <mergeCell ref="B1002:B1005"/>
-    <mergeCell ref="B971:B973"/>
-    <mergeCell ref="B902:B903"/>
-    <mergeCell ref="C1197:C1198"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="A851:A852"/>
-    <mergeCell ref="B1131:B1132"/>
-    <mergeCell ref="C851:C852"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="A1087:A1088"/>
-    <mergeCell ref="C845:C846"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="C1018:C1019"/>
-    <mergeCell ref="C772:C773"/>
-    <mergeCell ref="C1087:C1088"/>
-    <mergeCell ref="C505:C507"/>
-    <mergeCell ref="C1148:C1149"/>
-    <mergeCell ref="B263:B272"/>
-    <mergeCell ref="B900:B901"/>
-    <mergeCell ref="C639:C642"/>
-    <mergeCell ref="B1133:B1134"/>
-    <mergeCell ref="A709:A710"/>
-    <mergeCell ref="C709:C710"/>
-    <mergeCell ref="B835:B836"/>
-    <mergeCell ref="B842:B844"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="B1186:B1187"/>
-    <mergeCell ref="A751:A754"/>
-    <mergeCell ref="B790:B794"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A284:A294"/>
-    <mergeCell ref="A218:A224"/>
-    <mergeCell ref="B755:B757"/>
-    <mergeCell ref="B822:B823"/>
-    <mergeCell ref="C147:C153"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
